--- a/ITI/mCSD/3.5.0/StructureDefinition-IHE.mCSD.Practitioner.xlsx
+++ b/ITI/mCSD/3.5.0/StructureDefinition-IHE.mCSD.Practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-27T08:33:21-06:00</t>
+    <t>2022-02-28T19:48:00-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
